--- a/templates/template-rechnung_deu_v2.11.xlsx
+++ b/templates/template-rechnung_deu_v2.11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Datenbank\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\eclipse.workspace\facturaX\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42FED9E6-0635-45E5-A86E-0D59D49D0A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC5BBB8-7AF4-4705-8819-008D5642B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{703F8CA2-4C2B-45EC-8863-F4CDC39286C8}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t xml:space="preserve">BIC:   </t>
   </si>
@@ -98,12 +98,6 @@
     <t>RECHNUNG</t>
   </si>
   <si>
-    <t>{A36}</t>
-  </si>
-  <si>
-    <t>{A38}</t>
-  </si>
-  <si>
     <t xml:space="preserve">  Zahlen mit App</t>
   </si>
   <si>
@@ -128,13 +122,25 @@
     <t>{Recipient}</t>
   </si>
   <si>
-    <t>{A41}</t>
-  </si>
-  <si>
-    <t>{A42}</t>
-  </si>
-  <si>
-    <t>{A40}</t>
+    <t>{RevCharge}</t>
+  </si>
+  <si>
+    <t>{Skonto2}</t>
+  </si>
+  <si>
+    <t>{Skonto1}</t>
+  </si>
+  <si>
+    <t>{SkKopf}</t>
+  </si>
+  <si>
+    <t>{sofort}</t>
+  </si>
+  <si>
+    <t>{ZahlZiel}</t>
+  </si>
+  <si>
+    <t>{steuerfrei}</t>
   </si>
 </sst>
 </file>
@@ -567,51 +573,54 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="9" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="8" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="17" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -626,9 +635,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1035,7 +1041,7 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1051,28 +1057,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="41" t="s">
+      <c r="A1" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
       <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21"/>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
-      <c r="D2" s="40" t="s">
+      <c r="D2" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
     </row>
     <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="21"/>
@@ -1085,77 +1091,77 @@
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" s="27"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
-      <c r="B5" s="46" t="s">
-        <v>29</v>
+      <c r="B5" s="45" t="s">
+        <v>27</v>
       </c>
       <c r="C5" s="27"/>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
-      <c r="B6" s="47"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="26"/>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
-      <c r="B7" s="47"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="26"/>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="24"/>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
-      <c r="B9" s="47"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="24"/>
-      <c r="D9" s="45" t="s">
+      <c r="D9" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="25"/>
       <c r="C10" s="24"/>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
@@ -1163,8 +1169,8 @@
       <c r="C11" s="24"/>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
@@ -1192,11 +1198,11 @@
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
@@ -1208,18 +1214,18 @@
       <c r="C16" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="51" t="s">
+      <c r="D16" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="42" t="s">
+      <c r="E16" s="53"/>
+      <c r="F16" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="43"/>
+      <c r="G16" s="42"/>
     </row>
     <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" s="18"/>
       <c r="C17" s="17"/>
@@ -1328,99 +1334,127 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="56"/>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
       <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
       <c r="E30" s="11"/>
       <c r="F30" s="30"/>
       <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
       <c r="E31" s="9"/>
       <c r="F31" s="8"/>
       <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
       <c r="E32" s="7"/>
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
     </row>
+    <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="50"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="50"/>
+    </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="56" t="s">
+      <c r="A36" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="50"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="50"/>
+      <c r="E36" s="50"/>
+      <c r="F36" s="50"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+    </row>
+    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="E44" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="36"/>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B42" s="36"/>
-      <c r="C42" s="36"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="E43" s="2"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="E44" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F44" s="37"/>
+      <c r="F44" s="36"/>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="4"/>
@@ -1432,39 +1466,39 @@
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="4"/>
-      <c r="C47" s="53" t="s">
+      <c r="C47" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="53"/>
-      <c r="E47" s="54" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="55" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="31"/>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="53"/>
-      <c r="E48" s="54" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
     </row>
     <row r="49" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
-      <c r="C49" s="53" t="s">
+      <c r="C49" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="D49" s="53"/>
-      <c r="E49" s="54" t="s">
-        <v>27</v>
-      </c>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="4"/>
@@ -1483,7 +1517,8 @@
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
-  <mergeCells count="35">
+  <mergeCells count="38">
+    <mergeCell ref="A42:F42"/>
     <mergeCell ref="D16:E16"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="E49:G49"/>
@@ -1495,16 +1530,16 @@
     <mergeCell ref="E47:G47"/>
     <mergeCell ref="C48:D48"/>
     <mergeCell ref="E48:G48"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="F10:G11"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A42:D42"/>
     <mergeCell ref="E44:F44"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D2:F2"/>
@@ -1519,6 +1554,8 @@
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A38:F38"/>
   </mergeCells>
   <dataValidations count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Geben Sie in dieser Spalte unter dieser Überschrift eine Beschreibung ein." sqref="B16:D16" xr:uid="{D62CE01E-C875-4670-A81B-21D670F3A6E0}"/>
